--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Ptch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H2">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I2">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J2">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.38556497444119</v>
+        <v>3.431002</v>
       </c>
       <c r="N2">
-        <v>3.38556497444119</v>
+        <v>6.862004000000001</v>
       </c>
       <c r="O2">
-        <v>0.3227267370173501</v>
+        <v>0.3156140702344691</v>
       </c>
       <c r="P2">
-        <v>0.3227267370173501</v>
+        <v>0.2467932984329498</v>
       </c>
       <c r="Q2">
-        <v>18.56461169155295</v>
+        <v>19.02336042359901</v>
       </c>
       <c r="R2">
-        <v>18.56461169155295</v>
+        <v>76.09344169439602</v>
       </c>
       <c r="S2">
-        <v>0.1687947432309259</v>
+        <v>0.1514796154483959</v>
       </c>
       <c r="T2">
-        <v>0.1687947432309259</v>
+        <v>0.1006577648113254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H3">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I3">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J3">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.31457662119072</v>
+        <v>1.35903</v>
       </c>
       <c r="N3">
-        <v>1.31457662119072</v>
+        <v>4.07709</v>
       </c>
       <c r="O3">
-        <v>0.1253111450286667</v>
+        <v>0.1250156630251893</v>
       </c>
       <c r="P3">
-        <v>0.1253111450286667</v>
+        <v>0.1466333288508714</v>
       </c>
       <c r="Q3">
-        <v>7.208428931489508</v>
+        <v>7.535209106985</v>
       </c>
       <c r="R3">
-        <v>7.208428931489508</v>
+        <v>45.21125464191</v>
       </c>
       <c r="S3">
-        <v>0.06554109134115518</v>
+        <v>0.06000152194106369</v>
       </c>
       <c r="T3">
-        <v>0.06554109134115518</v>
+        <v>0.05980625577230889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H4">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I4">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J4">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.967223489492098</v>
+        <v>1.120271333333333</v>
       </c>
       <c r="N4">
-        <v>0.967223489492098</v>
+        <v>3.360814</v>
       </c>
       <c r="O4">
-        <v>0.09219993799759883</v>
+        <v>0.1030525179758942</v>
       </c>
       <c r="P4">
-        <v>0.09219993799759883</v>
+        <v>0.120872324248082</v>
       </c>
       <c r="Q4">
-        <v>5.303731766168045</v>
+        <v>6.211399861097668</v>
       </c>
       <c r="R4">
-        <v>5.303731766168045</v>
+        <v>37.268399166586</v>
       </c>
       <c r="S4">
-        <v>0.04822304158634155</v>
+        <v>0.04946026576819104</v>
       </c>
       <c r="T4">
-        <v>0.04822304158634155</v>
+        <v>0.04929930457437941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H5">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I5">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J5">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.21263613209576</v>
+        <v>1.221333333333333</v>
       </c>
       <c r="N5">
-        <v>1.21263613209576</v>
+        <v>3.664</v>
       </c>
       <c r="O5">
-        <v>0.1155937354784336</v>
+        <v>0.112349099314534</v>
       </c>
       <c r="P5">
-        <v>0.1155937354784336</v>
+        <v>0.1317764672620896</v>
       </c>
       <c r="Q5">
-        <v>6.649442289678776</v>
+        <v>6.771743122666668</v>
       </c>
       <c r="R5">
-        <v>6.649442289678776</v>
+        <v>40.63045873600001</v>
       </c>
       <c r="S5">
-        <v>0.06045862539779844</v>
+        <v>0.05392217890506645</v>
       </c>
       <c r="T5">
-        <v>0.06045862539779844</v>
+        <v>0.0537466970681883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H6">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I6">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J6">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.23414472763868</v>
+        <v>2.362270666666667</v>
       </c>
       <c r="N6">
-        <v>2.23414472763868</v>
+        <v>7.086812</v>
       </c>
       <c r="O6">
-        <v>0.2129683652266506</v>
+        <v>0.2173026597192772</v>
       </c>
       <c r="P6">
-        <v>0.2129683652266506</v>
+        <v>0.2548785615476484</v>
       </c>
       <c r="Q6">
-        <v>12.25084428875518</v>
+        <v>13.09772664373133</v>
       </c>
       <c r="R6">
-        <v>12.25084428875518</v>
+        <v>78.58635986238801</v>
       </c>
       <c r="S6">
-        <v>0.1113881696229276</v>
+        <v>0.1042948538565971</v>
       </c>
       <c r="T6">
-        <v>0.1113881696229276</v>
+        <v>0.1039554415237996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H7">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I7">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J7">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.37635448820353</v>
+        <v>1.3769705</v>
       </c>
       <c r="N7">
-        <v>1.37635448820353</v>
+        <v>2.753941</v>
       </c>
       <c r="O7">
-        <v>0.1312000792513001</v>
+        <v>0.1266659897306361</v>
       </c>
       <c r="P7">
-        <v>0.1312000792513001</v>
+        <v>0.09904601965835873</v>
       </c>
       <c r="Q7">
-        <v>7.54718542291219</v>
+        <v>7.634681097289751</v>
       </c>
       <c r="R7">
-        <v>7.54718542291219</v>
+        <v>30.538724389159</v>
       </c>
       <c r="S7">
-        <v>0.06862116195817317</v>
+        <v>0.0607935996026191</v>
       </c>
       <c r="T7">
-        <v>0.06862116195817317</v>
+        <v>0.04039717048871821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H8">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I8">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J8">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.38556497444119</v>
+        <v>3.431002</v>
       </c>
       <c r="N8">
-        <v>3.38556497444119</v>
+        <v>6.862004000000001</v>
       </c>
       <c r="O8">
-        <v>0.3227267370173501</v>
+        <v>0.3156140702344691</v>
       </c>
       <c r="P8">
-        <v>0.3227267370173501</v>
+        <v>0.2467932984329498</v>
       </c>
       <c r="Q8">
-        <v>10.41608059708578</v>
+        <v>0.51538796543</v>
       </c>
       <c r="R8">
-        <v>10.41608059708578</v>
+        <v>3.09232779258</v>
       </c>
       <c r="S8">
-        <v>0.09470597495221025</v>
+        <v>0.004103942156992336</v>
       </c>
       <c r="T8">
-        <v>0.09470597495221025</v>
+        <v>0.004090586478071819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H9">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I9">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J9">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.31457662119072</v>
+        <v>1.35903</v>
       </c>
       <c r="N9">
-        <v>1.31457662119072</v>
+        <v>4.07709</v>
       </c>
       <c r="O9">
-        <v>0.1253111450286667</v>
+        <v>0.1250156630251893</v>
       </c>
       <c r="P9">
-        <v>0.1253111450286667</v>
+        <v>0.1466333288508714</v>
       </c>
       <c r="Q9">
-        <v>4.044446389520944</v>
+        <v>0.20414669145</v>
       </c>
       <c r="R9">
-        <v>4.044446389520944</v>
+        <v>1.83732022305</v>
       </c>
       <c r="S9">
-        <v>0.03677325985444978</v>
+        <v>0.001625583578679725</v>
       </c>
       <c r="T9">
-        <v>0.03677325985444978</v>
+        <v>0.00243044003236982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H10">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I10">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J10">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.967223489492098</v>
+        <v>1.120271333333333</v>
       </c>
       <c r="N10">
-        <v>0.967223489492098</v>
+        <v>3.360814</v>
       </c>
       <c r="O10">
-        <v>0.09219993799759883</v>
+        <v>0.1030525179758942</v>
       </c>
       <c r="P10">
-        <v>0.09219993799759883</v>
+        <v>0.120872324248082</v>
       </c>
       <c r="Q10">
-        <v>2.975774471322068</v>
+        <v>0.1682815583366667</v>
       </c>
       <c r="R10">
-        <v>2.975774471322068</v>
+        <v>1.51453402503</v>
       </c>
       <c r="S10">
-        <v>0.02705659004052862</v>
+        <v>0.001339995940584319</v>
       </c>
       <c r="T10">
-        <v>0.02705659004052862</v>
+        <v>0.002003452679962656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H11">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I11">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J11">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.21263613209576</v>
+        <v>1.221333333333333</v>
       </c>
       <c r="N11">
-        <v>1.21263613209576</v>
+        <v>3.664</v>
       </c>
       <c r="O11">
-        <v>0.1155937354784336</v>
+        <v>0.112349099314534</v>
       </c>
       <c r="P11">
-        <v>0.1155937354784336</v>
+        <v>0.1317764672620896</v>
       </c>
       <c r="Q11">
-        <v>3.73081473319903</v>
+        <v>0.1834625866666666</v>
       </c>
       <c r="R11">
-        <v>3.73081473319903</v>
+        <v>1.65116328</v>
       </c>
       <c r="S11">
-        <v>0.03392163140255842</v>
+        <v>0.001460879753030351</v>
       </c>
       <c r="T11">
-        <v>0.03392163140255842</v>
+        <v>0.002184188300626923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H12">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I12">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J12">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.23414472763868</v>
+        <v>2.362270666666667</v>
       </c>
       <c r="N12">
-        <v>2.23414472763868</v>
+        <v>7.086812</v>
       </c>
       <c r="O12">
-        <v>0.2129683652266506</v>
+        <v>0.2173026597192772</v>
       </c>
       <c r="P12">
-        <v>0.2129683652266506</v>
+        <v>0.2548785615476484</v>
       </c>
       <c r="Q12">
-        <v>6.873603585906598</v>
+        <v>0.3548484881933333</v>
       </c>
       <c r="R12">
-        <v>6.873603585906598</v>
+        <v>3.19363639374</v>
       </c>
       <c r="S12">
-        <v>0.06249676382308546</v>
+        <v>0.002825595023016519</v>
       </c>
       <c r="T12">
-        <v>0.06249676382308546</v>
+        <v>0.00422459930653452</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.07661518113532</v>
+        <v>0.150215</v>
       </c>
       <c r="H13">
-        <v>3.07661518113532</v>
+        <v>0.450645</v>
       </c>
       <c r="I13">
-        <v>0.2934556207752901</v>
+        <v>0.01300303929398181</v>
       </c>
       <c r="J13">
-        <v>0.2934556207752901</v>
+        <v>0.01657494957944805</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.37635448820353</v>
+        <v>1.3769705</v>
       </c>
       <c r="N13">
-        <v>1.37635448820353</v>
+        <v>2.753941</v>
       </c>
       <c r="O13">
-        <v>0.1312000792513001</v>
+        <v>0.1266659897306361</v>
       </c>
       <c r="P13">
-        <v>0.1312000792513001</v>
+        <v>0.09904601965835873</v>
       </c>
       <c r="Q13">
-        <v>4.234513113030713</v>
+        <v>0.2068416236575</v>
       </c>
       <c r="R13">
-        <v>4.234513113030713</v>
+        <v>1.241049741945</v>
       </c>
       <c r="S13">
-        <v>0.03850140070245754</v>
+        <v>0.001647042841678558</v>
       </c>
       <c r="T13">
-        <v>0.03850140070245754</v>
+        <v>0.001641682781882317</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H14">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I14">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J14">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.38556497444119</v>
+        <v>3.431002</v>
       </c>
       <c r="N14">
-        <v>3.38556497444119</v>
+        <v>6.862004000000001</v>
       </c>
       <c r="O14">
-        <v>0.3227267370173501</v>
+        <v>0.3156140702344691</v>
       </c>
       <c r="P14">
-        <v>0.3227267370173501</v>
+        <v>0.2467932984329498</v>
       </c>
       <c r="Q14">
-        <v>6.513876087891909</v>
+        <v>0.7776720569873333</v>
       </c>
       <c r="R14">
-        <v>6.513876087891909</v>
+        <v>4.666032341924</v>
       </c>
       <c r="S14">
-        <v>0.05922601883421392</v>
+        <v>0.006192463450950983</v>
       </c>
       <c r="T14">
-        <v>0.05922601883421392</v>
+        <v>0.006172310985245046</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H15">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I15">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J15">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.31457662119072</v>
+        <v>1.35903</v>
       </c>
       <c r="N15">
-        <v>1.31457662119072</v>
+        <v>4.07709</v>
       </c>
       <c r="O15">
-        <v>0.1253111450286667</v>
+        <v>0.1250156630251893</v>
       </c>
       <c r="P15">
-        <v>0.1253111450286667</v>
+        <v>0.1466333288508714</v>
       </c>
       <c r="Q15">
-        <v>2.529264475241491</v>
+        <v>0.30803819281</v>
       </c>
       <c r="R15">
-        <v>2.529264475241491</v>
+        <v>2.77234373529</v>
       </c>
       <c r="S15">
-        <v>0.02299679383306171</v>
+        <v>0.002452853016041936</v>
       </c>
       <c r="T15">
-        <v>0.02299679383306171</v>
+        <v>0.003667305847509375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H16">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I16">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J16">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.967223489492098</v>
+        <v>1.120271333333333</v>
       </c>
       <c r="N16">
-        <v>0.967223489492098</v>
+        <v>3.360814</v>
       </c>
       <c r="O16">
-        <v>0.09219993799759883</v>
+        <v>0.1030525179758942</v>
       </c>
       <c r="P16">
-        <v>0.09219993799759883</v>
+        <v>0.120872324248082</v>
       </c>
       <c r="Q16">
-        <v>1.860952014630842</v>
+        <v>0.2539210738371111</v>
       </c>
       <c r="R16">
-        <v>1.860952014630842</v>
+        <v>2.285289664534</v>
       </c>
       <c r="S16">
-        <v>0.01692030637072867</v>
+        <v>0.002021928080139502</v>
       </c>
       <c r="T16">
-        <v>0.01692030637072867</v>
+        <v>0.003023022016828516</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H17">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I17">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J17">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.21263613209576</v>
+        <v>1.221333333333333</v>
       </c>
       <c r="N17">
-        <v>1.21263613209576</v>
+        <v>3.664</v>
       </c>
       <c r="O17">
-        <v>0.1155937354784336</v>
+        <v>0.112349099314534</v>
       </c>
       <c r="P17">
-        <v>0.1155937354784336</v>
+        <v>0.1317764672620896</v>
       </c>
       <c r="Q17">
-        <v>2.333129496495952</v>
+        <v>0.2768278204444444</v>
       </c>
       <c r="R17">
-        <v>2.333129496495952</v>
+        <v>2.491450384</v>
       </c>
       <c r="S17">
-        <v>0.02121347867807679</v>
+        <v>0.002204330404964731</v>
       </c>
       <c r="T17">
-        <v>0.02121347867807679</v>
+        <v>0.003295735101573513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.92401449597554</v>
+        <v>0.2266603333333333</v>
       </c>
       <c r="H18">
-        <v>1.92401449597554</v>
+        <v>0.6799809999999999</v>
       </c>
       <c r="I18">
-        <v>0.1835175460873881</v>
+        <v>0.01962036561408879</v>
       </c>
       <c r="J18">
-        <v>0.1835175460873881</v>
+        <v>0.025010042916226</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.23414472763868</v>
+        <v>2.362270666666667</v>
       </c>
       <c r="N18">
-        <v>2.23414472763868</v>
+        <v>7.086812</v>
       </c>
       <c r="O18">
-        <v>0.2129683652266506</v>
+        <v>0.2173026597192772</v>
       </c>
       <c r="P18">
-        <v>0.2129683652266506</v>
+        <v>0.2548785615476484</v>
       </c>
       <c r="Q18">
-        <v>4.298526842084145</v>
+        <v>0.5354330567302222</v>
       </c>
       <c r="R18">
-        <v>4.298526842084145</v>
+        <v>4.818897510572</v>
       </c>
       <c r="S18">
-        <v>0.03908343178063756</v>
+        <v>0.004263557632606144</v>
       </c>
       <c r="T18">
-        <v>0.03908343178063756</v>
+        <v>0.006374523762732638</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J19">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.3769705</v>
+      </c>
+      <c r="N19">
+        <v>2.753941</v>
+      </c>
+      <c r="O19">
+        <v>0.1266659897306361</v>
+      </c>
+      <c r="P19">
+        <v>0.09904601965835873</v>
+      </c>
+      <c r="Q19">
+        <v>0.3121045925201667</v>
+      </c>
+      <c r="R19">
+        <v>1.872627555121</v>
+      </c>
+      <c r="S19">
+        <v>0.002485233029385497</v>
+      </c>
+      <c r="T19">
+        <v>0.002477145202336916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.450882</v>
+      </c>
+      <c r="I20">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J20">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.431002</v>
+      </c>
+      <c r="N20">
+        <v>6.862004000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.3156140702344691</v>
+      </c>
+      <c r="P20">
+        <v>0.2467932984329498</v>
+      </c>
+      <c r="Q20">
+        <v>1.659326347921334</v>
+      </c>
+      <c r="R20">
+        <v>9.955958087528002</v>
+      </c>
+      <c r="S20">
+        <v>0.01321291882661819</v>
+      </c>
+      <c r="T20">
+        <v>0.01316991931670783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.450882</v>
+      </c>
+      <c r="I21">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J21">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.35903</v>
+      </c>
+      <c r="N21">
+        <v>4.07709</v>
+      </c>
+      <c r="O21">
+        <v>0.1250156630251893</v>
+      </c>
+      <c r="P21">
+        <v>0.1466333288508714</v>
+      </c>
+      <c r="Q21">
+        <v>0.6572640548200001</v>
+      </c>
+      <c r="R21">
+        <v>5.91537649338</v>
+      </c>
+      <c r="S21">
+        <v>0.005233676072744615</v>
+      </c>
+      <c r="T21">
+        <v>0.007824965760287564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.450882</v>
+      </c>
+      <c r="I22">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J22">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.120271333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.360814</v>
+      </c>
+      <c r="O22">
+        <v>0.1030525179758942</v>
+      </c>
+      <c r="P22">
+        <v>0.120872324248082</v>
+      </c>
+      <c r="Q22">
+        <v>0.5417938375497778</v>
+      </c>
+      <c r="R22">
+        <v>4.876144537948</v>
+      </c>
+      <c r="S22">
+        <v>0.004314207392219726</v>
+      </c>
+      <c r="T22">
+        <v>0.006450251153811932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.450882</v>
+      </c>
+      <c r="I23">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J23">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.221333333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.664</v>
+      </c>
+      <c r="O23">
+        <v>0.112349099314534</v>
+      </c>
+      <c r="P23">
+        <v>0.1317764672620896</v>
+      </c>
+      <c r="Q23">
+        <v>0.5906701831111112</v>
+      </c>
+      <c r="R23">
+        <v>5.316031648</v>
+      </c>
+      <c r="S23">
+        <v>0.00470340098710999</v>
+      </c>
+      <c r="T23">
+        <v>0.007032141685784135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.450882</v>
+      </c>
+      <c r="I24">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J24">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.362270666666667</v>
+      </c>
+      <c r="N24">
+        <v>7.086812</v>
+      </c>
+      <c r="O24">
+        <v>0.2173026597192772</v>
+      </c>
+      <c r="P24">
+        <v>0.2548785615476484</v>
+      </c>
+      <c r="Q24">
+        <v>1.142458663131556</v>
+      </c>
+      <c r="R24">
+        <v>10.282127968184</v>
+      </c>
+      <c r="S24">
+        <v>0.009097193929111061</v>
+      </c>
+      <c r="T24">
+        <v>0.01360138266498778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.450882</v>
+      </c>
+      <c r="I25">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J25">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.3769705</v>
+      </c>
+      <c r="N25">
+        <v>2.753941</v>
+      </c>
+      <c r="O25">
+        <v>0.1266659897306361</v>
+      </c>
+      <c r="P25">
+        <v>0.09904601965835873</v>
+      </c>
+      <c r="Q25">
+        <v>0.6659405709936668</v>
+      </c>
+      <c r="R25">
+        <v>3.995643425962</v>
+      </c>
+      <c r="S25">
+        <v>0.0053027656186583</v>
+      </c>
+      <c r="T25">
+        <v>0.005285508544293134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.223217</v>
+      </c>
+      <c r="H26">
+        <v>9.669651</v>
+      </c>
+      <c r="I26">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J26">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.431002</v>
+      </c>
+      <c r="N26">
+        <v>6.862004000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.3156140702344691</v>
+      </c>
+      <c r="P26">
+        <v>0.2467932984329498</v>
+      </c>
+      <c r="Q26">
+        <v>11.058863973434</v>
+      </c>
+      <c r="R26">
+        <v>66.353183840604</v>
+      </c>
+      <c r="S26">
+        <v>0.08805975520044182</v>
+      </c>
+      <c r="T26">
+        <v>0.08777317761935371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.223217</v>
+      </c>
+      <c r="H27">
+        <v>9.669651</v>
+      </c>
+      <c r="I27">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J27">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.35903</v>
+      </c>
+      <c r="N27">
+        <v>4.07709</v>
+      </c>
+      <c r="O27">
+        <v>0.1250156630251893</v>
+      </c>
+      <c r="P27">
+        <v>0.1466333288508714</v>
+      </c>
+      <c r="Q27">
+        <v>4.38044859951</v>
+      </c>
+      <c r="R27">
+        <v>39.42403739559</v>
+      </c>
+      <c r="S27">
+        <v>0.03488072846068188</v>
+      </c>
+      <c r="T27">
+        <v>0.05215082135482445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.92401449597554</v>
-      </c>
-      <c r="H19">
-        <v>1.92401449597554</v>
-      </c>
-      <c r="I19">
-        <v>0.1835175460873881</v>
-      </c>
-      <c r="J19">
-        <v>0.1835175460873881</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.37635448820353</v>
-      </c>
-      <c r="N19">
-        <v>1.37635448820353</v>
-      </c>
-      <c r="O19">
-        <v>0.1312000792513001</v>
-      </c>
-      <c r="P19">
-        <v>0.1312000792513001</v>
-      </c>
-      <c r="Q19">
-        <v>2.648125986904587</v>
-      </c>
-      <c r="R19">
-        <v>2.648125986904587</v>
-      </c>
-      <c r="S19">
-        <v>0.02407751659066944</v>
-      </c>
-      <c r="T19">
-        <v>0.02407751659066944</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.223217</v>
+      </c>
+      <c r="H28">
+        <v>9.669651</v>
+      </c>
+      <c r="I28">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J28">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.120271333333333</v>
+      </c>
+      <c r="N28">
+        <v>3.360814</v>
+      </c>
+      <c r="O28">
+        <v>0.1030525179758942</v>
+      </c>
+      <c r="P28">
+        <v>0.120872324248082</v>
+      </c>
+      <c r="Q28">
+        <v>3.610877606212667</v>
+      </c>
+      <c r="R28">
+        <v>32.497898455914</v>
+      </c>
+      <c r="S28">
+        <v>0.02875277233047544</v>
+      </c>
+      <c r="T28">
+        <v>0.04298880096362675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.223217</v>
+      </c>
+      <c r="H29">
+        <v>9.669651</v>
+      </c>
+      <c r="I29">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J29">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.221333333333333</v>
+      </c>
+      <c r="N29">
+        <v>3.664</v>
+      </c>
+      <c r="O29">
+        <v>0.112349099314534</v>
+      </c>
+      <c r="P29">
+        <v>0.1317764672620896</v>
+      </c>
+      <c r="Q29">
+        <v>3.936622362666667</v>
+      </c>
+      <c r="R29">
+        <v>35.429601264</v>
+      </c>
+      <c r="S29">
+        <v>0.0313466195448073</v>
+      </c>
+      <c r="T29">
+        <v>0.04686690984110647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.223217</v>
+      </c>
+      <c r="H30">
+        <v>9.669651</v>
+      </c>
+      <c r="I30">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J30">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.362270666666667</v>
+      </c>
+      <c r="N30">
+        <v>7.086812</v>
+      </c>
+      <c r="O30">
+        <v>0.2173026597192772</v>
+      </c>
+      <c r="P30">
+        <v>0.2548785615476484</v>
+      </c>
+      <c r="Q30">
+        <v>7.614110971401334</v>
+      </c>
+      <c r="R30">
+        <v>68.52699874261199</v>
+      </c>
+      <c r="S30">
+        <v>0.06062980337051718</v>
+      </c>
+      <c r="T30">
+        <v>0.09064873882774875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.223217</v>
+      </c>
+      <c r="H31">
+        <v>9.669651</v>
+      </c>
+      <c r="I31">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J31">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3769705</v>
+      </c>
+      <c r="N31">
+        <v>2.753941</v>
+      </c>
+      <c r="O31">
+        <v>0.1266659897306361</v>
+      </c>
+      <c r="P31">
+        <v>0.09904601965835873</v>
+      </c>
+      <c r="Q31">
+        <v>4.4382747240985</v>
+      </c>
+      <c r="R31">
+        <v>26.629648344591</v>
+      </c>
+      <c r="S31">
+        <v>0.03534118754469685</v>
+      </c>
+      <c r="T31">
+        <v>0.03522617482388826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.92403</v>
+      </c>
+      <c r="H32">
+        <v>3.84806</v>
+      </c>
+      <c r="I32">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J32">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.431002</v>
+      </c>
+      <c r="N32">
+        <v>6.862004000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.3156140702344691</v>
+      </c>
+      <c r="P32">
+        <v>0.2467932984329498</v>
+      </c>
+      <c r="Q32">
+        <v>6.601350778060001</v>
+      </c>
+      <c r="R32">
+        <v>26.40540311224001</v>
+      </c>
+      <c r="S32">
+        <v>0.0525653751510699</v>
+      </c>
+      <c r="T32">
+        <v>0.034929539222246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.92403</v>
+      </c>
+      <c r="H33">
+        <v>3.84806</v>
+      </c>
+      <c r="I33">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J33">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.35903</v>
+      </c>
+      <c r="N33">
+        <v>4.07709</v>
+      </c>
+      <c r="O33">
+        <v>0.1250156630251893</v>
+      </c>
+      <c r="P33">
+        <v>0.1466333288508714</v>
+      </c>
+      <c r="Q33">
+        <v>2.6148144909</v>
+      </c>
+      <c r="R33">
+        <v>15.6888869454</v>
+      </c>
+      <c r="S33">
+        <v>0.02082129995597744</v>
+      </c>
+      <c r="T33">
+        <v>0.02075354008357135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.92403</v>
+      </c>
+      <c r="H34">
+        <v>3.84806</v>
+      </c>
+      <c r="I34">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J34">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.120271333333333</v>
+      </c>
+      <c r="N34">
+        <v>3.360814</v>
+      </c>
+      <c r="O34">
+        <v>0.1030525179758942</v>
+      </c>
+      <c r="P34">
+        <v>0.120872324248082</v>
+      </c>
+      <c r="Q34">
+        <v>2.155435653473333</v>
+      </c>
+      <c r="R34">
+        <v>12.93261392084</v>
+      </c>
+      <c r="S34">
+        <v>0.01716334846428418</v>
+      </c>
+      <c r="T34">
+        <v>0.01710749285947275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.92403</v>
+      </c>
+      <c r="H35">
+        <v>3.84806</v>
+      </c>
+      <c r="I35">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J35">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.221333333333333</v>
+      </c>
+      <c r="N35">
+        <v>3.664</v>
+      </c>
+      <c r="O35">
+        <v>0.112349099314534</v>
+      </c>
+      <c r="P35">
+        <v>0.1317764672620896</v>
+      </c>
+      <c r="Q35">
+        <v>2.349881973333333</v>
+      </c>
+      <c r="R35">
+        <v>14.09929184</v>
+      </c>
+      <c r="S35">
+        <v>0.01871168971955521</v>
+      </c>
+      <c r="T35">
+        <v>0.0186507952648103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.92403</v>
+      </c>
+      <c r="H36">
+        <v>3.84806</v>
+      </c>
+      <c r="I36">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J36">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.362270666666667</v>
+      </c>
+      <c r="N36">
+        <v>7.086812</v>
+      </c>
+      <c r="O36">
+        <v>0.2173026597192772</v>
+      </c>
+      <c r="P36">
+        <v>0.2548785615476484</v>
+      </c>
+      <c r="Q36">
+        <v>4.545079630786668</v>
+      </c>
+      <c r="R36">
+        <v>27.27047778472</v>
+      </c>
+      <c r="S36">
+        <v>0.03619165590742918</v>
+      </c>
+      <c r="T36">
+        <v>0.0360738754618452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.92403</v>
+      </c>
+      <c r="H37">
+        <v>3.84806</v>
+      </c>
+      <c r="I37">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J37">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3769705</v>
+      </c>
+      <c r="N37">
+        <v>2.753941</v>
+      </c>
+      <c r="O37">
+        <v>0.1266659897306361</v>
+      </c>
+      <c r="P37">
+        <v>0.09904601965835873</v>
+      </c>
+      <c r="Q37">
+        <v>2.649332551115001</v>
+      </c>
+      <c r="R37">
+        <v>10.59733020446</v>
+      </c>
+      <c r="S37">
+        <v>0.02109616109359782</v>
+      </c>
+      <c r="T37">
+        <v>0.01401833781723989</v>
       </c>
     </row>
   </sheetData>
